--- a/biology/Biochimie/Coenzyme_A/Coenzyme_A.xlsx
+++ b/biology/Biochimie/Coenzyme_A/Coenzyme_A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La coenzyme A (CoA) est une coenzyme de transfert de groupements acyle intervenant dans de très nombreuses voies du métabolisme (cycle de Krebs, bêta-oxydation).
@@ -513,7 +525,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La coenzyme A est composée de différents éléments : un nucléotide, l'adénosine diphosphate (ADP), une vitamine, la vitamine B5 (acide pantothénique) et un acide aminé, la cystéine, légèrement modifiés et liés entre eux.
 Dans le détail, la coenzyme A est composée :
@@ -551,7 +565,9 @@
           <t>Biosynthèse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La coenzyme A est synthétisée en 5 étapes, à partir du pantothénate, base conjuguée de l'acide pantothénique (vitamine B5).
 Le pantothénate est phosphorylé en 4'-phosphopantothénate par la pantothénate kinase (PanK; CoaA; CoaX).
@@ -586,7 +602,9 @@
           <t>Réactivité avec les acides carboxyliques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Grâce à la fonction thiol de la cystéamine, la coenzyme A est capable de former avec les fonctions carboxyle de certains composés (comme les acides gras par exemple) des thioesters, appelés carboxyl-CoA. Cette liaison thioester est particulièrement riche en énergie.
 CoA-SH + R-COOH → CoA-S-CO-R  ( + H2O )
@@ -620,7 +638,9 @@
           <t>Principaux thioesters carboxyl-CoA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>acétyl-CoA
 Propionyl-CoA
@@ -661,7 +681,9 @@
           <t>Sources en CoA</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Abats, champignons, viande, jaune d'œuf.
 </t>
